--- a/Raw_Data/28.8.22_FACS_HPLC/HPLC28.8.22.xlsx
+++ b/Raw_Data/28.8.22_FACS_HPLC/HPLC28.8.22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paucac/Documents/PhD/CAB/CRISPA/CRISPA_plates/Colony_Analysis/Published_Code/CRI-SPA_CCM/Raw_Data/28.8.22_FACS_HPLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D8609-8A18-D441-8AA7-C36E1CB1515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2A6D2-1682-4F46-BA51-D4D33EF57B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="600" windowWidth="24640" windowHeight="16220" activeTab="1" xr2:uid="{52414D64-F831-E547-A27E-565B312287F5}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="14380" activeTab="1" xr2:uid="{52414D64-F831-E547-A27E-565B312287F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Component1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="496">
   <si>
     <t>Directory:</t>
   </si>
@@ -1390,6 +1390,141 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>19,513</t>
+  </si>
+  <si>
+    <t>10,631</t>
+  </si>
+  <si>
+    <t>21,308</t>
+  </si>
+  <si>
+    <t>16,975</t>
+  </si>
+  <si>
+    <t>13,96</t>
+  </si>
+  <si>
+    <t> M </t>
+  </si>
+  <si>
+    <t>19,502</t>
+  </si>
+  <si>
+    <t>10,368</t>
+  </si>
+  <si>
+    <t>20,644</t>
+  </si>
+  <si>
+    <t>16,707</t>
+  </si>
+  <si>
+    <t>14,07</t>
+  </si>
+  <si>
+    <t> MB</t>
+  </si>
+  <si>
+    <t>7,567</t>
+  </si>
+  <si>
+    <t>14,958</t>
+  </si>
+  <si>
+    <t>13,852</t>
+  </si>
+  <si>
+    <t>12,83</t>
+  </si>
+  <si>
+    <t>19,504</t>
+  </si>
+  <si>
+    <t>12,410</t>
+  </si>
+  <si>
+    <t>24,844</t>
+  </si>
+  <si>
+    <t>18,789</t>
+  </si>
+  <si>
+    <t>20,26</t>
+  </si>
+  <si>
+    <t>19,515</t>
+  </si>
+  <si>
+    <t>10,829</t>
+  </si>
+  <si>
+    <t>21,644</t>
+  </si>
+  <si>
+    <t>17,177</t>
+  </si>
+  <si>
+    <t>20,10</t>
+  </si>
+  <si>
+    <t>13,118</t>
+  </si>
+  <si>
+    <t>26,209</t>
+  </si>
+  <si>
+    <t>19,510</t>
+  </si>
+  <si>
+    <t>20,32</t>
+  </si>
+  <si>
+    <t>19,464</t>
+  </si>
+  <si>
+    <t>31,081</t>
+  </si>
+  <si>
+    <t>61,386</t>
+  </si>
+  <si>
+    <t>37,913</t>
+  </si>
+  <si>
+    <t>23,36</t>
+  </si>
+  <si>
+    <t>19,468</t>
+  </si>
+  <si>
+    <t>35,263</t>
+  </si>
+  <si>
+    <t>69,780</t>
+  </si>
+  <si>
+    <t>42,112</t>
+  </si>
+  <si>
+    <t>27,39</t>
+  </si>
+  <si>
+    <t>19,463</t>
+  </si>
+  <si>
+    <t>35,564</t>
+  </si>
+  <si>
+    <t>70,298</t>
+  </si>
+  <si>
+    <t>42,413</t>
+  </si>
+  <si>
+    <t>25,28</t>
   </si>
 </sst>
 </file>
@@ -4236,10 +4371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350D07C-2545-3447-87F2-B5C64CD86D31}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4778,31 +4913,157 @@
       <c r="A43">
         <v>33</v>
       </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>451</v>
+      </c>
+      <c r="D43" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" t="s">
+        <v>453</v>
+      </c>
+      <c r="F43" t="s">
+        <v>454</v>
+      </c>
+      <c r="G43" t="s">
+        <v>455</v>
+      </c>
+      <c r="H43" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>34</v>
       </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" t="s">
+        <v>458</v>
+      </c>
+      <c r="E44" t="s">
+        <v>459</v>
+      </c>
+      <c r="F44" t="s">
+        <v>460</v>
+      </c>
+      <c r="G44" t="s">
+        <v>461</v>
+      </c>
+      <c r="H44" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>35</v>
       </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" t="s">
+        <v>463</v>
+      </c>
+      <c r="E45" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" t="s">
+        <v>465</v>
+      </c>
+      <c r="G45" t="s">
+        <v>466</v>
+      </c>
+      <c r="H45" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>36</v>
       </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>467</v>
+      </c>
+      <c r="D46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" t="s">
+        <v>469</v>
+      </c>
+      <c r="F46" t="s">
+        <v>470</v>
+      </c>
+      <c r="G46" t="s">
+        <v>471</v>
+      </c>
+      <c r="H46" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>37</v>
       </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>472</v>
+      </c>
+      <c r="D47" t="s">
+        <v>473</v>
+      </c>
+      <c r="E47" t="s">
+        <v>474</v>
+      </c>
+      <c r="F47" t="s">
+        <v>475</v>
+      </c>
+      <c r="G47" t="s">
+        <v>476</v>
+      </c>
+      <c r="H47" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>38</v>
       </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>389</v>
+      </c>
+      <c r="D48" t="s">
+        <v>477</v>
+      </c>
+      <c r="E48" t="s">
+        <v>478</v>
+      </c>
+      <c r="F48" t="s">
+        <v>479</v>
+      </c>
+      <c r="G48" t="s">
+        <v>480</v>
+      </c>
+      <c r="H48" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -5140,6 +5401,84 @@
       </c>
       <c r="H61" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="s">
+        <v>481</v>
+      </c>
+      <c r="D62" t="s">
+        <v>482</v>
+      </c>
+      <c r="E62" t="s">
+        <v>483</v>
+      </c>
+      <c r="F62" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" t="s">
+        <v>485</v>
+      </c>
+      <c r="H62" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" t="s">
+        <v>486</v>
+      </c>
+      <c r="D63" t="s">
+        <v>487</v>
+      </c>
+      <c r="E63" t="s">
+        <v>488</v>
+      </c>
+      <c r="F63" t="s">
+        <v>489</v>
+      </c>
+      <c r="G63" t="s">
+        <v>490</v>
+      </c>
+      <c r="H63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" t="s">
+        <v>491</v>
+      </c>
+      <c r="D64" t="s">
+        <v>492</v>
+      </c>
+      <c r="E64" t="s">
+        <v>493</v>
+      </c>
+      <c r="F64" t="s">
+        <v>494</v>
+      </c>
+      <c r="G64" t="s">
+        <v>495</v>
+      </c>
+      <c r="H64" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
